--- a/TimesheetManagementTool/src/test/resources/TestData/ActitimeTestData1.xlsx
+++ b/TimesheetManagementTool/src/test/resources/TestData/ActitimeTestData1.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\AutomationBatchDelhi\TimesheetManagementTool\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\git\AutomationProjectDelhi\TimesheetManagementTool\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB275969-382F-48F6-8196-9EAA94DB8AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1506F2-31B1-4267-B675-7DA1C88BD6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AFB3C769-ADED-4276-947F-297B69426706}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AFB3C769-ADED-4276-947F-297B69426706}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InValidLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="UserDetails" sheetId="3" r:id="rId3"/>
+    <sheet name="CusomerAndProject" sheetId="4" r:id="rId3"/>
+    <sheet name="UserDetails" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -90,6 +91,18 @@
   </si>
   <si>
     <t>manager4545</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>ICICI Bank</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
   </si>
 </sst>
 </file>
@@ -154,10 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3E5704-B179-4D70-B659-67D1F1F956F7}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="234" workbookViewId="0">
+    <sheetView zoomScale="234" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -573,6 +587,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A092857-C4E4-4DE9-960E-9999448A8BDB}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568264C0-EC4A-456B-AE59-C1E9F60E9E4A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
